--- a/JOGOS/2023-07-29_lay_goleada.xlsx
+++ b/JOGOS/2023-07-29_lay_goleada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -46,100 +46,325 @@
     <t>FT_Odd_BTTS_Yes</t>
   </si>
   <si>
-    <t>28/07/2023</t>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>07:00</t>
   </si>
   <si>
     <t>08:35</t>
   </si>
   <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:20</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>JAPAN - J2 LEAGUE</t>
   </si>
   <si>
     <t>CHINA - SUPER LEAGUE</t>
   </si>
   <si>
+    <t>UKRAINE - PREMIER LEAGUE</t>
+  </si>
+  <si>
     <t>FINLAND - VEIKKAUSLIIGA</t>
   </si>
   <si>
-    <t>UKRAINE - PREMIER LEAGUE</t>
-  </si>
-  <si>
-    <t>SWEDEN - SUPERETTAN</t>
-  </si>
-  <si>
-    <t>IRELAND - PREMIER DIVISION</t>
+    <t>BRAZIL - SERIE B</t>
+  </si>
+  <si>
+    <t>LITHUANIA - A LYGA</t>
+  </si>
+  <si>
+    <t>AUSTRIA - BUNDESLIGA</t>
+  </si>
+  <si>
+    <t>HUNGARY - OTP BANK LIGA</t>
+  </si>
+  <si>
+    <t>SWITZERLAND - SUPER LEAGUE</t>
   </si>
   <si>
     <t>ARGENTINA - LIGA PROFESIONAL</t>
   </si>
   <si>
+    <t>SWEDEN - ALLSVENSKAN</t>
+  </si>
+  <si>
+    <t>ARGENTINA - PRIMERA NACIONAL</t>
+  </si>
+  <si>
+    <t>SERBIA - SUPER LIGA</t>
+  </si>
+  <si>
+    <t>CANADA - CANADIAN PREMIER LEAGUE</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE A</t>
+  </si>
+  <si>
+    <t>CHILE - PRIMERA DIVISION</t>
+  </si>
+  <si>
     <t>PARAGUAY - PRIMERA DIVISION</t>
   </si>
   <si>
-    <t>Henan Songshan Longmen</t>
-  </si>
-  <si>
-    <t>Ilves</t>
-  </si>
-  <si>
-    <t>Veres-Rivne</t>
-  </si>
-  <si>
-    <t>AFC Eskilstuna</t>
-  </si>
-  <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>Union de Santa Fe</t>
-  </si>
-  <si>
-    <t>General Caballero JLM</t>
-  </si>
-  <si>
-    <t>Newells Old Boys</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>Zhytomyr</t>
-  </si>
-  <si>
-    <t>Skovde AIK</t>
-  </si>
-  <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>Defensa y Justicia</t>
-  </si>
-  <si>
-    <t>Sp. Luqueno</t>
-  </si>
-  <si>
-    <t>Talleres Cordoba</t>
+    <t>USA - USL CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>COLOMBIA - PRIMERA A</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
+    <t>Chiba</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t>Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t>Rukh Lviv</t>
+  </si>
+  <si>
+    <t>SJK</t>
+  </si>
+  <si>
+    <t>Metalist 1925</t>
+  </si>
+  <si>
+    <t>Chapecoense-SC</t>
+  </si>
+  <si>
+    <t>Vorskla Poltava</t>
+  </si>
+  <si>
+    <t>Dziugas Telsiai</t>
+  </si>
+  <si>
+    <t>Tirol</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>DVTK</t>
+  </si>
+  <si>
+    <t>Lugano</t>
+  </si>
+  <si>
+    <t>Central Cordoba</t>
+  </si>
+  <si>
+    <t>Halmstad</t>
+  </si>
+  <si>
+    <t>Deportivo Moron</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>FK Vozdovac</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>Valour</t>
+  </si>
+  <si>
+    <t>Avai</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Colo Colo</t>
+  </si>
+  <si>
+    <t>Atl. Ottawa</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Ameliano</t>
+  </si>
+  <si>
+    <t>Louisville City</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Atl. Nacional</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
+  </si>
+  <si>
+    <t>Orange County SC</t>
+  </si>
+  <si>
+    <t>Las Vegas Lights</t>
+  </si>
+  <si>
+    <t>Fujieda MYFC</t>
+  </si>
+  <si>
+    <t>Renofa Yamaguchi</t>
+  </si>
+  <si>
+    <t>Cangzhou</t>
+  </si>
+  <si>
+    <t>Shanghai Port</t>
+  </si>
+  <si>
+    <t>FK Zorya Luhansk</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>Shakhtar Donetsk</t>
+  </si>
+  <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
+    <t>Suduva</t>
+  </si>
+  <si>
+    <t>A. Klagenfurt</t>
+  </si>
+  <si>
+    <t>BW Linz</t>
+  </si>
+  <si>
+    <t>Puskas Academy</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Atl. Tucuman</t>
+  </si>
+  <si>
+    <t>Varberg</t>
+  </si>
+  <si>
+    <t>Gimnasia Mendoza</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Javor</t>
+  </si>
+  <si>
+    <t>Partizan</t>
+  </si>
+  <si>
+    <t>Pacific FC</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Huachipato</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Libertad Asuncion</t>
+  </si>
+  <si>
+    <t>Indy Eleven</t>
+  </si>
+  <si>
+    <t>Flamengo RJ</t>
+  </si>
+  <si>
+    <t>Jaguares de Cordoba</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Sacramento Republic</t>
   </si>
 </sst>
 </file>
@@ -497,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +762,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -546,273 +771,1218 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="K2">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="H3">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J3">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="H4">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>2.09</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G6">
-        <v>3.2</v>
+        <v>4.72</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I6">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="J6">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H7">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J7">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>2.75</v>
+        <v>13.5</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="I8">
-        <v>2.38</v>
+        <v>1.23</v>
       </c>
       <c r="J8">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="K8">
-        <v>1.73</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9">
+        <v>2.74</v>
+      </c>
+      <c r="H9">
+        <v>3.06</v>
+      </c>
+      <c r="I9">
+        <v>2.73</v>
+      </c>
+      <c r="J9">
+        <v>2.59</v>
+      </c>
+      <c r="K9">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>3.83</v>
+      </c>
+      <c r="H10">
+        <v>3.6</v>
+      </c>
+      <c r="I10">
+        <v>1.97</v>
+      </c>
+      <c r="J10">
+        <v>2.1</v>
+      </c>
+      <c r="K10">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>2.27</v>
+      </c>
+      <c r="H11">
+        <v>3.46</v>
+      </c>
+      <c r="I11">
+        <v>2.85</v>
+      </c>
+      <c r="J11">
+        <v>1.98</v>
+      </c>
+      <c r="K11">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12">
+        <v>2.1</v>
+      </c>
+      <c r="H12">
+        <v>3.75</v>
+      </c>
+      <c r="I12">
+        <v>3.2</v>
+      </c>
+      <c r="J12">
+        <v>1.67</v>
+      </c>
+      <c r="K12">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13">
+        <v>2.2</v>
+      </c>
+      <c r="H13">
+        <v>3.5</v>
+      </c>
+      <c r="I13">
+        <v>3.2</v>
+      </c>
+      <c r="J13">
+        <v>1.8</v>
+      </c>
+      <c r="K13">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14">
+        <v>3.1</v>
+      </c>
+      <c r="H14">
+        <v>3.5</v>
+      </c>
+      <c r="I14">
+        <v>2.25</v>
+      </c>
+      <c r="J14">
+        <v>1.8</v>
+      </c>
+      <c r="K14">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>2.3</v>
+      </c>
+      <c r="H15">
+        <v>3.6</v>
+      </c>
+      <c r="I15">
+        <v>2.9</v>
+      </c>
+      <c r="J15">
+        <v>1.57</v>
+      </c>
+      <c r="K15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16">
+        <v>2.4</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3.4</v>
+      </c>
+      <c r="J16">
+        <v>2.7</v>
+      </c>
+      <c r="K16">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17">
+        <v>1.91</v>
+      </c>
+      <c r="H17">
+        <v>3.5</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2.05</v>
+      </c>
+      <c r="K17">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18">
+        <v>1.91</v>
+      </c>
+      <c r="H18">
+        <v>3.2</v>
+      </c>
+      <c r="I18">
+        <v>4.75</v>
+      </c>
+      <c r="J18">
+        <v>2.7</v>
+      </c>
+      <c r="K18">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19">
+        <v>2.53</v>
+      </c>
+      <c r="H19">
+        <v>3.04</v>
+      </c>
+      <c r="I19">
+        <v>3.04</v>
+      </c>
+      <c r="J19">
+        <v>2.54</v>
+      </c>
+      <c r="K19">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>2.52</v>
+      </c>
+      <c r="H20">
+        <v>3.15</v>
+      </c>
+      <c r="I20">
+        <v>2.77</v>
+      </c>
+      <c r="J20">
+        <v>2.27</v>
+      </c>
+      <c r="K20">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <v>2.62</v>
+      </c>
+      <c r="H21">
+        <v>3.08</v>
+      </c>
+      <c r="I21">
+        <v>2.72</v>
+      </c>
+      <c r="J21">
+        <v>2.25</v>
+      </c>
+      <c r="K21">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22">
+        <v>2.8</v>
+      </c>
+      <c r="H22">
+        <v>3.18</v>
+      </c>
+      <c r="I22">
+        <v>2.41</v>
+      </c>
+      <c r="J22">
+        <v>2.16</v>
+      </c>
+      <c r="K22">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23">
+        <v>2.21</v>
+      </c>
+      <c r="H23">
+        <v>3.13</v>
+      </c>
+      <c r="I23">
+        <v>3.55</v>
+      </c>
+      <c r="J23">
+        <v>2.62</v>
+      </c>
+      <c r="K23">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>1.98</v>
+      </c>
+      <c r="H24">
+        <v>3.2</v>
+      </c>
+      <c r="I24">
+        <v>4.22</v>
+      </c>
+      <c r="J24">
+        <v>2.65</v>
+      </c>
+      <c r="K24">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25">
+        <v>2.8</v>
+      </c>
+      <c r="H25">
+        <v>2.9</v>
+      </c>
+      <c r="I25">
+        <v>2.88</v>
+      </c>
+      <c r="J25">
+        <v>3.1</v>
+      </c>
+      <c r="K25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26">
+        <v>1.85</v>
+      </c>
+      <c r="H26">
+        <v>3.3</v>
+      </c>
+      <c r="I26">
+        <v>4.5</v>
+      </c>
+      <c r="J26">
+        <v>2.63</v>
+      </c>
+      <c r="K26">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27">
+        <v>1.62</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>5.25</v>
+      </c>
+      <c r="J27">
+        <v>1.85</v>
+      </c>
+      <c r="K27">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28">
+        <v>2.39</v>
+      </c>
+      <c r="H28">
+        <v>3.24</v>
+      </c>
+      <c r="I28">
+        <v>2.78</v>
+      </c>
+      <c r="J28">
+        <v>2.05</v>
+      </c>
+      <c r="K28">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29">
+        <v>2.45</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3.2</v>
+      </c>
+      <c r="J29">
+        <v>2.88</v>
+      </c>
+      <c r="K29">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3.75</v>
+      </c>
+      <c r="I30">
+        <v>1.73</v>
+      </c>
+      <c r="J30">
+        <v>1.73</v>
+      </c>
+      <c r="K30">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31">
+        <v>1.79</v>
+      </c>
+      <c r="H31">
+        <v>3.54</v>
+      </c>
+      <c r="I31">
+        <v>4.21</v>
+      </c>
+      <c r="J31">
+        <v>1.96</v>
+      </c>
+      <c r="K31">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32">
+        <v>2.2</v>
+      </c>
+      <c r="H32">
+        <v>3.25</v>
+      </c>
+      <c r="I32">
+        <v>3.4</v>
+      </c>
+      <c r="J32">
+        <v>2.1</v>
+      </c>
+      <c r="K32">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33">
+        <v>1.53</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>2.05</v>
+      </c>
+      <c r="K33">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>3.1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>2.5</v>
-      </c>
-      <c r="J9">
-        <v>2.7</v>
-      </c>
-      <c r="K9">
-        <v>2.2</v>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>1.69</v>
+      </c>
+      <c r="H34">
+        <v>3.72</v>
+      </c>
+      <c r="I34">
+        <v>4.59</v>
+      </c>
+      <c r="J34">
+        <v>1.89</v>
+      </c>
+      <c r="K34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>3.48</v>
+      </c>
+      <c r="I35">
+        <v>3.42</v>
+      </c>
+      <c r="J35">
+        <v>1.83</v>
+      </c>
+      <c r="K35">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36">
+        <v>3.62</v>
+      </c>
+      <c r="H36">
+        <v>3.45</v>
+      </c>
+      <c r="I36">
+        <v>1.95</v>
+      </c>
+      <c r="J36">
+        <v>1.93</v>
+      </c>
+      <c r="K36">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
